--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1652401.787911065</v>
+        <v>-1655314.40579281</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>36.99361326575549</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>11.8159374020888</v>
       </c>
       <c r="V5" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>11.81593740208882</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575549</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>36.99361326575549</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>32.58397456447741</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575549</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>32.58397456447744</v>
+        <v>36.99361326575549</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>36.99361326575549</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>32.58397456447745</v>
+        <v>36.99361326575549</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>36.99361326575549</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>32.58397456447742</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>36.99361326575549</v>
       </c>
       <c r="X7" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.6011929913534</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.1485340960706</v>
+        <v>177.601192991353</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>149.5550850450723</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>136.4065509490021</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>177.601192991353</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>177.6011929913534</v>
+        <v>177.601192991353</v>
       </c>
       <c r="X8" t="n">
-        <v>177.6011929913534</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>63.84020400559727</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1909167206423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>28.59550141142866</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>177.601192991353</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>177.601192991353</v>
       </c>
       <c r="W9" t="n">
-        <v>177.6011929913534</v>
+        <v>177.601192991353</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>127.8356293753551</v>
       </c>
     </row>
     <row r="10">
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>53.75339868939513</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>126.3911536743326</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>133.8449624421724</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>177.601192991353</v>
       </c>
       <c r="V10" t="n">
-        <v>177.6011929913534</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>177.601192991353</v>
       </c>
       <c r="X10" t="n">
-        <v>59.02569708559247</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>177.6011929913534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>151.1520210031461</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>125.9673299442111</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>60.61620153653799</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>84.82340809973003</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,16 +1607,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>294.0705787619483</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>317.2257262156692</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.1644063769637</v>
@@ -1625,7 +1625,7 @@
         <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605494</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.9303487751657</v>
+        <v>91.93034877516574</v>
       </c>
       <c r="T14" t="n">
         <v>200.6028050067863</v>
@@ -1701,10 +1701,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H15" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T15" t="n">
         <v>189.0833237787849</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>133.457554034972</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442971</v>
+        <v>73.65767465442975</v>
       </c>
       <c r="S16" t="n">
         <v>183.8488525946973</v>
@@ -1819,13 +1819,13 @@
         <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>71.24143813523696</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
         <v>323.072839268469</v>
@@ -1853,10 +1853,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
         <v>255.2416659947559</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262555</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
         <v>354.6277363038396</v>
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
         <v>117.0052706659984</v>
@@ -2014,13 +2014,13 @@
         <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510294</v>
+        <v>134.0758985510277</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
@@ -2059,13 +2059,13 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
         <v>186.9744509998808</v>
@@ -2087,7 +2087,7 @@
         <v>323.072839268469</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200458</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894975</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424839</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
         <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V22" t="n">
         <v>220.5274409716141</v>
@@ -2333,7 +2333,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994754</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053443002</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2530,7 +2530,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V25" t="n">
         <v>220.5274409716141</v>
@@ -2555,13 +2555,13 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
         <v>323.072839268469</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200458</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
         <v>375.2658433894975</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2621,7 +2621,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="27">
@@ -2719,7 +2719,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943541</v>
       </c>
       <c r="F28" t="n">
         <v>113.8108456707173</v>
@@ -2728,10 +2728,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053443002</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V28" t="n">
         <v>220.5274409716141</v>
@@ -2779,7 +2779,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D29" t="n">
         <v>323.072839268469</v>
@@ -2801,10 +2801,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H29" t="n">
         <v>255.2416659947559</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U29" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y29" t="n">
         <v>354.6277363038396</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C31" t="n">
         <v>135.6366187464139</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453108</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401414</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
         <v>254.5831063612651</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X31" t="n">
         <v>194.0994530368232</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187933</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
         <v>375.2658433894975</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3095,7 +3095,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C34" t="n">
         <v>135.6366187464139</v>
@@ -3193,7 +3193,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
         <v>113.8108456707173</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V34" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W34" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X34" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>60.32014642295178</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545699</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
         <v>219.3243840645688</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3503,7 +3503,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187933</v>
       </c>
       <c r="D38" t="n">
         <v>323.072839268469</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3740,7 +3740,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D41" t="n">
         <v>323.072839268469</v>
@@ -3749,10 +3749,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H41" t="n">
         <v>255.2416659947559</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642294905</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U41" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y41" t="n">
         <v>354.6277363038396</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D43" t="n">
         <v>117.0052706659984</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -3952,16 +3952,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y43" t="n">
         <v>186.9744509998808</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4074,7 +4074,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I45" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T45" t="n">
         <v>189.0833237787849</v>
@@ -4141,7 +4141,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
         <v>113.8108456707173</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.93730437680452</v>
+        <v>61.30459050383026</v>
       </c>
       <c r="C5" t="n">
-        <v>23.93730437680452</v>
+        <v>61.30459050383026</v>
       </c>
       <c r="D5" t="n">
         <v>23.93730437680452</v>
@@ -4556,61 +4556,61 @@
         <v>16.99180362760105</v>
       </c>
       <c r="G5" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260439</v>
       </c>
       <c r="H5" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260439</v>
       </c>
       <c r="I5" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260439</v>
       </c>
       <c r="J5" t="n">
-        <v>35.4455562212067</v>
+        <v>2.959489061260439</v>
       </c>
       <c r="K5" t="n">
-        <v>35.4455562212067</v>
+        <v>27.92488796631714</v>
       </c>
       <c r="L5" t="n">
-        <v>72.06923335430464</v>
+        <v>64.54856509941507</v>
       </c>
       <c r="M5" t="n">
-        <v>89.26398591619204</v>
+        <v>81.74331766130247</v>
       </c>
       <c r="N5" t="n">
-        <v>111.3507759299241</v>
+        <v>103.8301076750345</v>
       </c>
       <c r="O5" t="n">
-        <v>147.974453063022</v>
+        <v>111.350775929924</v>
       </c>
       <c r="P5" t="n">
-        <v>147.974453063022</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="Q5" t="n">
-        <v>147.974453063022</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="R5" t="n">
-        <v>147.974453063022</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="S5" t="n">
-        <v>110.6071669359962</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="T5" t="n">
-        <v>110.6071669359962</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="U5" t="n">
-        <v>110.6071669359962</v>
+        <v>136.0391627578817</v>
       </c>
       <c r="V5" t="n">
-        <v>73.2398808089705</v>
+        <v>136.0391627578817</v>
       </c>
       <c r="W5" t="n">
-        <v>61.30459050383028</v>
+        <v>136.0391627578817</v>
       </c>
       <c r="X5" t="n">
-        <v>23.93730437680452</v>
+        <v>98.671876630856</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.93730437680452</v>
+        <v>61.30459050383026</v>
       </c>
     </row>
     <row r="6">
@@ -4620,55 +4620,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40.3267751882862</v>
+        <v>2.959489061260439</v>
       </c>
       <c r="C6" t="n">
-        <v>40.3267751882862</v>
+        <v>2.959489061260439</v>
       </c>
       <c r="D6" t="n">
-        <v>40.3267751882862</v>
+        <v>2.959489061260439</v>
       </c>
       <c r="E6" t="n">
-        <v>40.3267751882862</v>
+        <v>2.959489061260439</v>
       </c>
       <c r="F6" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260439</v>
       </c>
       <c r="G6" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260439</v>
       </c>
       <c r="H6" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260439</v>
       </c>
       <c r="I6" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260439</v>
       </c>
       <c r="J6" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260439</v>
       </c>
       <c r="K6" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260439</v>
       </c>
       <c r="L6" t="n">
-        <v>28.04275820728451</v>
+        <v>28.04275820728449</v>
       </c>
       <c r="M6" t="n">
-        <v>64.66643534038245</v>
+        <v>64.66643534038242</v>
       </c>
       <c r="N6" t="n">
-        <v>101.2901124734804</v>
+        <v>101.2901124734803</v>
       </c>
       <c r="O6" t="n">
-        <v>137.9137896065784</v>
+        <v>137.9137896065783</v>
       </c>
       <c r="P6" t="n">
-        <v>147.974453063022</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="Q6" t="n">
-        <v>147.974453063022</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="R6" t="n">
-        <v>147.974453063022</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="S6" t="n">
         <v>110.6071669359962</v>
@@ -4677,19 +4677,19 @@
         <v>110.6071669359962</v>
       </c>
       <c r="U6" t="n">
-        <v>77.69406131531196</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="V6" t="n">
-        <v>77.69406131531196</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="W6" t="n">
-        <v>40.3267751882862</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="X6" t="n">
-        <v>40.3267751882862</v>
+        <v>35.8725946819447</v>
       </c>
       <c r="Y6" t="n">
-        <v>40.3267751882862</v>
+        <v>35.8725946819447</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.2398808089705</v>
+        <v>40.32677518828618</v>
       </c>
       <c r="C7" t="n">
-        <v>40.3267751882862</v>
+        <v>2.959489061260439</v>
       </c>
       <c r="D7" t="n">
-        <v>40.3267751882862</v>
+        <v>2.959489061260439</v>
       </c>
       <c r="E7" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260439</v>
       </c>
       <c r="F7" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260439</v>
       </c>
       <c r="G7" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260439</v>
       </c>
       <c r="H7" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260439</v>
       </c>
       <c r="I7" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260439</v>
       </c>
       <c r="J7" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260439</v>
       </c>
       <c r="K7" t="n">
-        <v>39.58316619435838</v>
+        <v>39.58316619435837</v>
       </c>
       <c r="L7" t="n">
-        <v>76.20684332745633</v>
+        <v>39.58316619435837</v>
       </c>
       <c r="M7" t="n">
-        <v>76.20684332745633</v>
+        <v>74.72709879682608</v>
       </c>
       <c r="N7" t="n">
-        <v>111.3507759299241</v>
+        <v>74.72709879682608</v>
       </c>
       <c r="O7" t="n">
-        <v>147.974453063022</v>
+        <v>111.350775929924</v>
       </c>
       <c r="P7" t="n">
-        <v>147.974453063022</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="Q7" t="n">
-        <v>147.974453063022</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="R7" t="n">
-        <v>147.974453063022</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="S7" t="n">
-        <v>147.974453063022</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="T7" t="n">
-        <v>147.974453063022</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="U7" t="n">
-        <v>147.974453063022</v>
+        <v>110.6071669359962</v>
       </c>
       <c r="V7" t="n">
-        <v>147.974453063022</v>
+        <v>77.69406131531193</v>
       </c>
       <c r="W7" t="n">
-        <v>147.974453063022</v>
+        <v>40.32677518828618</v>
       </c>
       <c r="X7" t="n">
-        <v>110.6071669359962</v>
+        <v>40.32677518828618</v>
       </c>
       <c r="Y7" t="n">
-        <v>73.2398808089705</v>
+        <v>40.32677518828618</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.43494376030023</v>
+        <v>351.6144830939918</v>
       </c>
       <c r="C8" t="n">
-        <v>34.43494376030023</v>
+        <v>351.6144830939918</v>
       </c>
       <c r="D8" t="n">
-        <v>34.43494376030023</v>
+        <v>351.6144830939918</v>
       </c>
       <c r="E8" t="n">
-        <v>34.43494376030023</v>
+        <v>351.6144830939918</v>
       </c>
       <c r="F8" t="n">
-        <v>27.48944301109676</v>
+        <v>344.6689823447883</v>
       </c>
       <c r="G8" t="n">
-        <v>14.20809543930827</v>
+        <v>165.2738379090782</v>
       </c>
       <c r="H8" t="n">
-        <v>14.20809543930827</v>
+        <v>14.20809543930824</v>
       </c>
       <c r="I8" t="n">
-        <v>14.20809543930827</v>
+        <v>14.20809543930824</v>
       </c>
       <c r="J8" t="n">
-        <v>15.97961917232199</v>
+        <v>15.9796191723217</v>
       </c>
       <c r="K8" t="n">
-        <v>69.37319227393252</v>
+        <v>87.90075126749637</v>
       </c>
       <c r="L8" t="n">
-        <v>172.5144029471181</v>
+        <v>191.0419619406815</v>
       </c>
       <c r="M8" t="n">
-        <v>318.9483104488406</v>
+        <v>337.4758694424035</v>
       </c>
       <c r="N8" t="n">
-        <v>472.3654800447108</v>
+        <v>490.8930390382732</v>
       </c>
       <c r="O8" t="n">
-        <v>603.8977016478973</v>
+        <v>622.4252606414592</v>
       </c>
       <c r="P8" t="n">
-        <v>681.6564088217647</v>
+        <v>700.1839678153262</v>
       </c>
       <c r="Q8" t="n">
-        <v>710.4047719654136</v>
+        <v>710.404771965412</v>
       </c>
       <c r="R8" t="n">
-        <v>710.4047719654136</v>
+        <v>710.404771965412</v>
       </c>
       <c r="S8" t="n">
-        <v>572.6203770674317</v>
+        <v>710.404771965412</v>
       </c>
       <c r="T8" t="n">
-        <v>572.6203770674317</v>
+        <v>531.0096275297019</v>
       </c>
       <c r="U8" t="n">
-        <v>572.6203770674317</v>
+        <v>531.0096275297019</v>
       </c>
       <c r="V8" t="n">
-        <v>572.6203770674317</v>
+        <v>531.0096275297019</v>
       </c>
       <c r="W8" t="n">
-        <v>393.2252326317213</v>
+        <v>351.6144830939918</v>
       </c>
       <c r="X8" t="n">
-        <v>213.8300881960107</v>
+        <v>351.6144830939918</v>
       </c>
       <c r="Y8" t="n">
-        <v>213.8300881960107</v>
+        <v>351.6144830939918</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>362.794290509635</v>
+        <v>14.20809543930824</v>
       </c>
       <c r="C9" t="n">
-        <v>298.3092359585266</v>
+        <v>14.20809543930824</v>
       </c>
       <c r="D9" t="n">
-        <v>298.3092359585266</v>
+        <v>14.20809543930824</v>
       </c>
       <c r="E9" t="n">
-        <v>298.3092359585266</v>
+        <v>14.20809543930824</v>
       </c>
       <c r="F9" t="n">
-        <v>151.7746779854116</v>
+        <v>14.20809543930824</v>
       </c>
       <c r="G9" t="n">
-        <v>14.20809543930827</v>
+        <v>14.20809543930824</v>
       </c>
       <c r="H9" t="n">
-        <v>14.20809543930827</v>
+        <v>14.20809543930824</v>
       </c>
       <c r="I9" t="n">
-        <v>14.20809543930827</v>
+        <v>14.20809543930824</v>
       </c>
       <c r="J9" t="n">
-        <v>14.20809543930827</v>
+        <v>14.20809543930824</v>
       </c>
       <c r="K9" t="n">
-        <v>62.00356905248626</v>
+        <v>62.00356905248623</v>
       </c>
       <c r="L9" t="n">
-        <v>172.5930228083515</v>
+        <v>172.5930228083511</v>
       </c>
       <c r="M9" t="n">
-        <v>321.0025673461637</v>
+        <v>321.0025673461632</v>
       </c>
       <c r="N9" t="n">
-        <v>487.7487158372571</v>
+        <v>487.7487158372563</v>
       </c>
       <c r="O9" t="n">
-        <v>618.069070003585</v>
+        <v>618.0690700035839</v>
       </c>
       <c r="P9" t="n">
-        <v>703.3295772241589</v>
+        <v>703.3295772241574</v>
       </c>
       <c r="Q9" t="n">
-        <v>710.4047719654136</v>
+        <v>710.404771965412</v>
       </c>
       <c r="R9" t="n">
-        <v>710.4047719654136</v>
+        <v>681.5204271053831</v>
       </c>
       <c r="S9" t="n">
-        <v>710.4047719654136</v>
+        <v>681.5204271053831</v>
       </c>
       <c r="T9" t="n">
-        <v>710.4047719654136</v>
+        <v>681.5204271053831</v>
       </c>
       <c r="U9" t="n">
-        <v>710.4047719654136</v>
+        <v>502.125282669673</v>
       </c>
       <c r="V9" t="n">
-        <v>710.4047719654136</v>
+        <v>322.7301382339629</v>
       </c>
       <c r="W9" t="n">
-        <v>531.009627529703</v>
+        <v>143.3349937982528</v>
       </c>
       <c r="X9" t="n">
-        <v>531.009627529703</v>
+        <v>143.3349937982528</v>
       </c>
       <c r="Y9" t="n">
-        <v>531.009627529703</v>
+        <v>14.20809543930824</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>291.9925668459193</v>
+        <v>216.4175513342217</v>
       </c>
       <c r="C10" t="n">
-        <v>291.9925668459193</v>
+        <v>216.4175513342217</v>
       </c>
       <c r="D10" t="n">
-        <v>141.8759274335836</v>
+        <v>162.1211890217014</v>
       </c>
       <c r="E10" t="n">
-        <v>141.8759274335836</v>
+        <v>14.20809543930824</v>
       </c>
       <c r="F10" t="n">
-        <v>141.8759274335836</v>
+        <v>14.20809543930824</v>
       </c>
       <c r="G10" t="n">
-        <v>141.8759274335836</v>
+        <v>14.20809543930824</v>
       </c>
       <c r="H10" t="n">
-        <v>141.8759274335836</v>
+        <v>14.20809543930824</v>
       </c>
       <c r="I10" t="n">
-        <v>14.20809543930827</v>
+        <v>14.20809543930824</v>
       </c>
       <c r="J10" t="n">
-        <v>14.20809543930827</v>
+        <v>14.20809543930824</v>
       </c>
       <c r="K10" t="n">
-        <v>103.305296221003</v>
+        <v>14.20809543930824</v>
       </c>
       <c r="L10" t="n">
-        <v>272.8454727319335</v>
+        <v>183.7482719502385</v>
       </c>
       <c r="M10" t="n">
-        <v>285.2663763700427</v>
+        <v>359.573453011678</v>
       </c>
       <c r="N10" t="n">
-        <v>461.0915574314826</v>
+        <v>535.3986340731175</v>
       </c>
       <c r="O10" t="n">
-        <v>597.3979227643196</v>
+        <v>694.9544111832536</v>
       </c>
       <c r="P10" t="n">
-        <v>710.4047719654136</v>
+        <v>710.404771965412</v>
       </c>
       <c r="Q10" t="n">
-        <v>710.4047719654136</v>
+        <v>710.404771965412</v>
       </c>
       <c r="R10" t="n">
-        <v>710.4047719654136</v>
+        <v>575.2078402056419</v>
       </c>
       <c r="S10" t="n">
-        <v>710.4047719654136</v>
+        <v>575.2078402056419</v>
       </c>
       <c r="T10" t="n">
-        <v>710.4047719654136</v>
+        <v>575.2078402056419</v>
       </c>
       <c r="U10" t="n">
-        <v>710.4047719654136</v>
+        <v>395.8126957699318</v>
       </c>
       <c r="V10" t="n">
-        <v>531.009627529703</v>
+        <v>395.8126957699318</v>
       </c>
       <c r="W10" t="n">
-        <v>531.009627529703</v>
+        <v>216.4175513342217</v>
       </c>
       <c r="X10" t="n">
-        <v>471.3877112816298</v>
+        <v>216.4175513342217</v>
       </c>
       <c r="Y10" t="n">
-        <v>291.9925668459193</v>
+        <v>216.4175513342217</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>1384.829779622645</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E11" t="n">
         <v>1232.150970528558</v>
@@ -5039,7 +5039,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5048,7 +5048,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>3088.075425919891</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.306770649777</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X11" t="n">
-        <v>2735.306770649777</v>
+        <v>2161.568951662579</v>
       </c>
       <c r="Y11" t="n">
-        <v>2345.167438673965</v>
+        <v>1771.429619686767</v>
       </c>
     </row>
     <row r="12">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>848.0708164780106</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="C13" t="n">
-        <v>679.1346335501037</v>
+        <v>421.8708831972622</v>
       </c>
       <c r="D13" t="n">
-        <v>529.0179941377679</v>
+        <v>421.8708831972622</v>
       </c>
       <c r="E13" t="n">
-        <v>381.1049005553748</v>
+        <v>273.9577896148691</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574645</v>
+        <v>273.9577896148691</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1161.740577577775</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1076.060367376028</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>848.0708164780106</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y13" t="n">
-        <v>848.0708164780106</v>
+        <v>590.8070661251691</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1866.026662509058</v>
+        <v>1866.026662509056</v>
       </c>
       <c r="C14" t="n">
-        <v>1866.026662509058</v>
+        <v>1497.064145568645</v>
       </c>
       <c r="D14" t="n">
-        <v>1507.760963902308</v>
+        <v>1200.023156920212</v>
       </c>
       <c r="E14" t="n">
-        <v>1121.972711304064</v>
+        <v>1200.023156920212</v>
       </c>
       <c r="F14" t="n">
-        <v>801.5426848235895</v>
+        <v>789.0372521306047</v>
       </c>
       <c r="G14" t="n">
-        <v>387.2352036347372</v>
+        <v>374.7297709417525</v>
       </c>
       <c r="H14" t="n">
-        <v>97.48584166810102</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L14" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S14" t="n">
-        <v>4156.161510599079</v>
+        <v>4156.161510599077</v>
       </c>
       <c r="T14" t="n">
-        <v>3953.532414632628</v>
+        <v>3953.532414632626</v>
       </c>
       <c r="U14" t="n">
-        <v>3700.063135423757</v>
+        <v>3700.063135423755</v>
       </c>
       <c r="V14" t="n">
-        <v>3369.000248080186</v>
+        <v>3369.000248080184</v>
       </c>
       <c r="W14" t="n">
-        <v>3016.231592810072</v>
+        <v>3016.23159281007</v>
       </c>
       <c r="X14" t="n">
-        <v>2642.765834548992</v>
+        <v>2642.76583454899</v>
       </c>
       <c r="Y14" t="n">
-        <v>2252.62650257318</v>
+        <v>2252.626502573178</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H15" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J15" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="K15" t="n">
-        <v>216.5575109835859</v>
+        <v>388.0214583249805</v>
       </c>
       <c r="L15" t="n">
-        <v>670.3561405779134</v>
+        <v>841.8200879193078</v>
       </c>
       <c r="M15" t="n">
-        <v>1219.274605188202</v>
+        <v>1381.839344833951</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.129953114605</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O15" t="n">
-        <v>2303.534908062855</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P15" t="n">
         <v>2346.796248312508</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1096.368901028491</v>
+        <v>516.7926060216977</v>
       </c>
       <c r="C16" t="n">
-        <v>927.4327181005837</v>
+        <v>516.7926060216977</v>
       </c>
       <c r="D16" t="n">
-        <v>777.3160786882479</v>
+        <v>366.6759666093619</v>
       </c>
       <c r="E16" t="n">
-        <v>629.4029851058548</v>
+        <v>366.6759666093619</v>
       </c>
       <c r="F16" t="n">
-        <v>482.5130376079444</v>
+        <v>219.7860191114516</v>
       </c>
       <c r="G16" t="n">
-        <v>315.1533397258816</v>
+        <v>219.7860191114516</v>
       </c>
       <c r="H16" t="n">
-        <v>171.9869683152617</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J16" t="n">
-        <v>153.8801783755867</v>
+        <v>153.8801783755866</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869777</v>
+        <v>396.9405013869775</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042034</v>
+        <v>763.5004667042031</v>
       </c>
       <c r="M16" t="n">
         <v>1160.375677726126</v>
       </c>
       <c r="N16" t="n">
-        <v>1553.248699711515</v>
+        <v>1553.248699711514</v>
       </c>
       <c r="O16" t="n">
         <v>1900.114228341785</v>
@@ -5455,31 +5455,31 @@
         <v>2173.396928727846</v>
       </c>
       <c r="Q16" t="n">
-        <v>2279.168624967671</v>
+        <v>2279.16862496767</v>
       </c>
       <c r="R16" t="n">
         <v>2204.76693339754</v>
       </c>
       <c r="S16" t="n">
-        <v>2019.061021685725</v>
+        <v>2019.061021685724</v>
       </c>
       <c r="T16" t="n">
-        <v>1798.760544521729</v>
+        <v>1798.760544521728</v>
       </c>
       <c r="U16" t="n">
-        <v>1798.760544521729</v>
+        <v>1509.676394306093</v>
       </c>
       <c r="V16" t="n">
-        <v>1798.760544521729</v>
+        <v>1254.991906100206</v>
       </c>
       <c r="W16" t="n">
-        <v>1726.799495900278</v>
+        <v>965.5747360632452</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.80994500226</v>
+        <v>737.5851851652278</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.01736585873</v>
+        <v>516.7926060216977</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D17" t="n">
         <v>1458.093420216582</v>
@@ -5501,55 +5501,55 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162834</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
         <v>766.683188695145</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M17" t="n">
         <v>2001.213713746738</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W17" t="n">
         <v>3175.879079437414</v>
@@ -5589,22 +5589,22 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J18" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>425.8076655769663</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>879.6062951712937</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M18" t="n">
-        <v>1428.524759781583</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N18" t="n">
-        <v>1428.524759781583</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O18" t="n">
         <v>1934.929714729833</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502111</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477729</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609058</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039813</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315396</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G19" t="n">
         <v>251.2943450749443</v>
@@ -5668,55 +5668,55 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J20" t="n">
         <v>337.4933016076836</v>
@@ -5771,31 +5771,31 @@
         <v>3813.656640612703</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="K21" t="n">
-        <v>388.0214583249805</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L21" t="n">
-        <v>841.820087919308</v>
+        <v>510.5988892561712</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.770967407336</v>
+        <v>1059.51735386646</v>
       </c>
       <c r="N21" t="n">
-        <v>1815.626315333739</v>
+        <v>1637.372701792863</v>
       </c>
       <c r="O21" t="n">
-        <v>2322.031270281989</v>
+        <v>2143.777656741113</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281989</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q21" t="n">
         <v>2530.879212293269</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749443</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H22" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5923,10 +5923,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
         <v>2529.521427597205</v>
@@ -5938,7 +5938,7 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
         <v>1887.747186237501</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796655</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162819</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951463</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6060,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J24" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>519.5985603334502</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="L24" t="n">
-        <v>519.5985603334502</v>
+        <v>670.3561405779133</v>
       </c>
       <c r="M24" t="n">
-        <v>850.6694118551806</v>
+        <v>1219.274605188202</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781583</v>
+        <v>1797.129953114605</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2303.534908062855</v>
       </c>
       <c r="P24" t="n">
         <v>2322.031270281989</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G25" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749448</v>
       </c>
       <c r="H25" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
@@ -6163,7 +6163,7 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
         <v>2529.521427597205</v>
@@ -6175,19 +6175,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
         <v>1022.581387254981</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G26" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076837</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K26" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050961</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>388.0214583249805</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="L27" t="n">
-        <v>841.820087919308</v>
+        <v>670.3561405779133</v>
       </c>
       <c r="M27" t="n">
-        <v>875.4343898857002</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="N27" t="n">
-        <v>1453.289737812102</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O27" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P27" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q27" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502104</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477707</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609036</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749448</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H28" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6397,37 +6397,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1104.234664943805</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J29" t="n">
         <v>337.4933016076836</v>
@@ -6473,25 +6473,25 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U29" t="n">
         <v>3795.851627400161</v>
@@ -6500,7 +6500,7 @@
         <v>3496.718237382059</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X29" t="n">
         <v>2834.342818501802</v>
@@ -6534,34 +6534,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>841.820087919308</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="M30" t="n">
-        <v>1390.738552529597</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.289737812102</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O30" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P30" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,58 +6595,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502108</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609056</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039811</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315394</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749453</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897941</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N31" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
         <v>2144.901839127669</v>
@@ -6655,16 +6655,16 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
         <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951448</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050963</v>
@@ -6710,40 +6710,40 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P32" t="n">
         <v>3813.656640612703</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511626</v>
+        <v>93.82973291098881</v>
       </c>
       <c r="K33" t="n">
-        <v>388.0214583249806</v>
+        <v>396.8707822608532</v>
       </c>
       <c r="L33" t="n">
-        <v>841.820087919308</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="M33" t="n">
-        <v>1381.83934483395</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="N33" t="n">
-        <v>1959.694692760353</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O33" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
         <v>185.1742787042785</v>
@@ -6862,7 +6862,7 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
@@ -6871,22 +6871,22 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
         <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
         <v>1887.747186237501</v>
@@ -6923,22 +6923,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G35" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
@@ -6953,16 +6953,16 @@
         <v>3311.067850233286</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
         <v>4017.391409283565</v>
@@ -7008,34 +7008,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>519.5985603334502</v>
+        <v>450.5726436074859</v>
       </c>
       <c r="L36" t="n">
-        <v>973.3971899277776</v>
+        <v>904.3712732018133</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.315654538067</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="N36" t="n">
-        <v>2100.171002464469</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O36" t="n">
-        <v>2100.171002464469</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281989</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477712</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E37" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749437</v>
       </c>
       <c r="H37" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7114,7 +7114,7 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R37" t="n">
         <v>2487.049233352542</v>
@@ -7175,7 +7175,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
@@ -7184,7 +7184,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O38" t="n">
         <v>3311.067850233288</v>
@@ -7193,7 +7193,7 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R38" t="n">
         <v>4249.020448755811</v>
@@ -7257,19 +7257,19 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>519.5985603334502</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>1068.517024943739</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="N39" t="n">
-        <v>1646.372372870142</v>
+        <v>1551.25253785418</v>
       </c>
       <c r="O39" t="n">
-        <v>2152.777327818392</v>
+        <v>2057.65749280243</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281989</v>
+        <v>2444.759048354586</v>
       </c>
       <c r="Q39" t="n">
         <v>2530.879212293269</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039802</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749436</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897924</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042779</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443606</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902781</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040893</v>
@@ -7357,10 +7357,10 @@
         <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
         <v>1887.747186237501</v>
@@ -7394,49 +7394,49 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G41" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K41" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T41" t="n">
         <v>4017.391409283565</v>
@@ -7482,28 +7482,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>235.0538732027197</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>688.8525027970471</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.770967407336</v>
+        <v>1068.517024943739</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.626315333739</v>
+        <v>1646.372372870142</v>
       </c>
       <c r="O42" t="n">
-        <v>2322.031270281989</v>
+        <v>2152.777327818392</v>
       </c>
       <c r="P42" t="n">
         <v>2322.031270281989</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C43" t="n">
-        <v>735.855734147771</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D43" t="n">
-        <v>617.668592060904</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039795</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315378</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G43" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H43" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
         <v>2529.521427597204</v>
@@ -7612,7 +7612,7 @@
         <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="44">
@@ -7649,7 +7649,7 @@
         <v>337.4933016076836</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
@@ -7676,7 +7676,7 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
         <v>3795.851627400162</v>
@@ -7719,7 +7719,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
         <v>84.98040897511622</v>
@@ -7728,25 +7728,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L45" t="n">
-        <v>973.3971899277776</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="M45" t="n">
-        <v>973.3971899277776</v>
+        <v>1068.51702494374</v>
       </c>
       <c r="N45" t="n">
-        <v>1551.25253785418</v>
+        <v>1646.372372870142</v>
       </c>
       <c r="O45" t="n">
-        <v>2057.65749280243</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P45" t="n">
-        <v>2444.759048354586</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749443</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
@@ -7804,28 +7804,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R46" t="n">
         <v>2487.049233352543</v>
@@ -7834,19 +7834,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.581387254981</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>94.12480244466519</v>
+        <v>61.31059319219423</v>
       </c>
       <c r="K5" t="n">
-        <v>40.63765753208767</v>
+        <v>65.85523218366011</v>
       </c>
       <c r="L5" t="n">
-        <v>50.13371393458542</v>
+        <v>50.13371393458536</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,10 +8228,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>29.39697866485699</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>28.36594393961249</v>
+        <v>65.35955720536796</v>
       </c>
       <c r="Q5" t="n">
         <v>69.96098256656424</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>92.48560745376845</v>
+        <v>92.48560745376844</v>
       </c>
       <c r="L7" t="n">
-        <v>77.79638413461723</v>
+        <v>40.80277086886173</v>
       </c>
       <c r="M7" t="n">
-        <v>39.72960594677293</v>
+        <v>75.22852776744739</v>
       </c>
       <c r="N7" t="n">
-        <v>66.34695168357581</v>
+        <v>30.84802986290133</v>
       </c>
       <c r="O7" t="n">
-        <v>86.00503337641993</v>
+        <v>86.0050333764199</v>
       </c>
       <c r="P7" t="n">
-        <v>61.19225318659063</v>
+        <v>98.1858664523461</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8453,7 +8453,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>18.71470605410553</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>18.71470605410389</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>17.94216116945685</v>
+        <v>17.94216116945698</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>16.7465938378903</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>165.0548256801318</v>
       </c>
       <c r="N10" t="n">
-        <v>157.4162553977901</v>
+        <v>157.4162553977899</v>
       </c>
       <c r="O10" t="n">
-        <v>139.5574120453781</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>36.46465582016688</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9413,13 +9413,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>-5.990588462161206e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>2.657429831742775e-12</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11300,13 +11300,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>199.3668833182246</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>216.0243616194777</v>
       </c>
     </row>
     <row r="3">
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>214.1208707678614</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>201.7849285259238</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>105.4096067224902</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>201.699590236861</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>60.61246285873466</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>89.65031952604221</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>8.277153661541661</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.13649374674408</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1933087134791</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>215.281560201354</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.926459533717184e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.989519660128281e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-4.973799150320701e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26317,16 +26317,16 @@
         <v>143682.3097262495</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="E2" t="n">
-        <v>119348.9846398222</v>
+        <v>119348.9846398223</v>
       </c>
       <c r="F2" t="n">
         <v>134180.0568414793</v>
       </c>
       <c r="G2" t="n">
-        <v>143682.3097262498</v>
+        <v>143682.3097262499</v>
       </c>
       <c r="H2" t="n">
         <v>143682.3097262497</v>
@@ -26335,10 +26335,10 @@
         <v>143682.3097262496</v>
       </c>
       <c r="J2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262498</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262498</v>
       </c>
       <c r="L2" t="n">
         <v>143682.3097262496</v>
@@ -26347,7 +26347,7 @@
         <v>143682.3097262497</v>
       </c>
       <c r="N2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262497</v>
@@ -26366,40 +26366,40 @@
         <v>251306.7941829319</v>
       </c>
       <c r="C3" t="n">
-        <v>94021.10390369296</v>
+        <v>94021.10390369294</v>
       </c>
       <c r="D3" t="n">
-        <v>202057.8637125768</v>
+        <v>202057.863712576</v>
       </c>
       <c r="E3" t="n">
-        <v>640230.2398270904</v>
+        <v>640230.2398270911</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.109696308</v>
+        <v>215052.1096963076</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177119</v>
+        <v>25288.16188177116</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>9.056020644493401e-11</v>
       </c>
       <c r="K3" t="n">
-        <v>9520.97225898113</v>
+        <v>9520.972258980975</v>
       </c>
       <c r="L3" t="n">
-        <v>60874.67484210253</v>
+        <v>60874.67484210241</v>
       </c>
       <c r="M3" t="n">
-        <v>162929.6405938555</v>
+        <v>162929.6405938558</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.2935957864</v>
+        <v>56542.29359578623</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>335706.4866022024</v>
+        <v>335706.4866022025</v>
       </c>
       <c r="C4" t="n">
         <v>337723.4195335117</v>
       </c>
       <c r="D4" t="n">
-        <v>277387.538939881</v>
+        <v>277387.5389398813</v>
       </c>
       <c r="E4" t="n">
         <v>9770.403102091475</v>
@@ -26430,34 +26430,34 @@
         <v>9889.878033789992</v>
       </c>
       <c r="G4" t="n">
-        <v>40959.76311601009</v>
+        <v>40959.76311601004</v>
       </c>
       <c r="H4" t="n">
-        <v>40959.76311601002</v>
+        <v>40959.76311601005</v>
       </c>
       <c r="I4" t="n">
+        <v>40959.76311601013</v>
+      </c>
+      <c r="J4" t="n">
+        <v>40959.76311601001</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40959.76311601006</v>
+      </c>
+      <c r="L4" t="n">
+        <v>40959.76311601007</v>
+      </c>
+      <c r="M4" t="n">
         <v>40959.76311601004</v>
-      </c>
-      <c r="J4" t="n">
-        <v>40959.76311601013</v>
-      </c>
-      <c r="K4" t="n">
-        <v>40959.76311601005</v>
-      </c>
-      <c r="L4" t="n">
-        <v>40959.76311601009</v>
-      </c>
-      <c r="M4" t="n">
-        <v>40959.76311601016</v>
       </c>
       <c r="N4" t="n">
         <v>40959.76311601004</v>
       </c>
       <c r="O4" t="n">
-        <v>40959.76311601017</v>
+        <v>40959.76311601008</v>
       </c>
       <c r="P4" t="n">
-        <v>40959.76311601004</v>
+        <v>40959.76311601001</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>39312.96135688073</v>
       </c>
       <c r="C5" t="n">
-        <v>43526.93507027925</v>
+        <v>43526.93507027924</v>
       </c>
       <c r="D5" t="n">
-        <v>56107.45912460603</v>
+        <v>56107.45912460599</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.996000607</v>
+        <v>92448.99600060697</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="H5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="I5" t="n">
         <v>95106.43410215525</v>
       </c>
-      <c r="I5" t="n">
-        <v>95106.43410215528</v>
-      </c>
       <c r="J5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="N5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="O5" t="n">
         <v>95106.43410215528</v>
       </c>
-      <c r="O5" t="n">
-        <v>95106.43410215525</v>
-      </c>
       <c r="P5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-491035.7490082818</v>
+        <v>-491155.6321024607</v>
       </c>
       <c r="C6" t="n">
-        <v>-331589.1487812344</v>
+        <v>-331589.1487812343</v>
       </c>
       <c r="D6" t="n">
-        <v>-391870.5520508142</v>
+        <v>-391870.5520508136</v>
       </c>
       <c r="E6" t="n">
-        <v>-604957.9988507529</v>
+        <v>-605305.6177805597</v>
       </c>
       <c r="F6" t="n">
-        <v>-183210.9268892257</v>
+        <v>-183346.6733590076</v>
       </c>
       <c r="G6" t="n">
-        <v>-17672.04937368679</v>
+        <v>-17672.04937368659</v>
       </c>
       <c r="H6" t="n">
-        <v>7616.112508084523</v>
+        <v>7616.112508084363</v>
       </c>
       <c r="I6" t="n">
-        <v>7616.112508084188</v>
+        <v>7616.112508084247</v>
       </c>
       <c r="J6" t="n">
-        <v>7616.112508084276</v>
+        <v>7616.112508084407</v>
       </c>
       <c r="K6" t="n">
-        <v>-1904.859750896721</v>
+        <v>-1904.859750896489</v>
       </c>
       <c r="L6" t="n">
-        <v>-53258.56233401828</v>
+        <v>-53258.56233401813</v>
       </c>
       <c r="M6" t="n">
-        <v>-155313.5280857712</v>
+        <v>-155313.5280857714</v>
       </c>
       <c r="N6" t="n">
-        <v>-48926.181087702</v>
+        <v>-48926.18108770192</v>
       </c>
       <c r="O6" t="n">
-        <v>7616.112508084349</v>
+        <v>7616.112508084319</v>
       </c>
       <c r="P6" t="n">
-        <v>7616.112508084378</v>
+        <v>7616.112508084392</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H2" t="n">
         <v>31.61020235221395</v>
@@ -26707,25 +26707,25 @@
         <v>31.61020235221395</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M2" t="n">
         <v>31.61020235221395</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>350.9230909963904</v>
       </c>
       <c r="D3" t="n">
-        <v>535.8581004922818</v>
+        <v>535.8581004922811</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575549</v>
       </c>
       <c r="D4" t="n">
-        <v>177.6011929913534</v>
+        <v>177.601192991353</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022928</v>
@@ -26805,13 +26805,13 @@
         <v>1062.255112188953</v>
       </c>
       <c r="H4" t="n">
+        <v>1062.255112188953</v>
+      </c>
+      <c r="I4" t="n">
         <v>1062.255112188952</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>1062.255112188953</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1062.255112188952</v>
       </c>
       <c r="K4" t="n">
         <v>1062.255112188953</v>
@@ -26820,13 +26820,13 @@
         <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
         <v>1062.255112188953</v>
       </c>
       <c r="O4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="P4" t="n">
         <v>1062.255112188953</v>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>90.12669847892562</v>
       </c>
       <c r="D3" t="n">
-        <v>184.9350094958913</v>
+        <v>184.9350094958907</v>
       </c>
       <c r="E3" t="n">
-        <v>553.9186001010165</v>
+        <v>553.9186001010172</v>
       </c>
       <c r="F3" t="n">
-        <v>188.3831700268247</v>
+        <v>188.3831700268242</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,43 +27012,43 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575549</v>
       </c>
       <c r="D4" t="n">
-        <v>140.6075797255979</v>
+        <v>140.6075797255975</v>
       </c>
       <c r="E4" t="n">
-        <v>653.8002624109394</v>
+        <v>653.8002624109397</v>
       </c>
       <c r="F4" t="n">
-        <v>230.8536567866601</v>
+        <v>230.8536567866598</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>4.547473508864641e-13</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
-        <v>36.99361326575615</v>
+        <v>36.99361326575536</v>
       </c>
       <c r="L4" t="n">
-        <v>140.6075797255981</v>
+        <v>140.6075797255977</v>
       </c>
       <c r="M4" t="n">
-        <v>653.8002624109384</v>
+        <v>653.8002624109397</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866605</v>
+        <v>230.8536567866598</v>
       </c>
       <c r="O4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27258,16 +27258,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575549</v>
       </c>
       <c r="L4" t="n">
-        <v>140.6075797255979</v>
+        <v>140.6075797255975</v>
       </c>
       <c r="M4" t="n">
-        <v>653.8002624109394</v>
+        <v>653.8002624109397</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866601</v>
+        <v>230.8536567866598</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>149.8740853991884</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>170.2135770365759</v>
       </c>
     </row>
     <row r="3">
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>317.6894283549275</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27664,25 +27664,25 @@
         <v>61.25133858516169</v>
       </c>
       <c r="S5" t="n">
-        <v>139.8790796930316</v>
+        <v>176.8726929587871</v>
       </c>
       <c r="T5" t="n">
         <v>216.9203085356421</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2327932202799</v>
+        <v>239.4168558181911</v>
       </c>
       <c r="V5" t="n">
-        <v>290.7586452043794</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>337.4250313153242</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>332.7374874127136</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>349.2443253902981</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>133.9492090853899</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27704,7 +27704,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>108.0755991276284</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.5887014580486</v>
@@ -27749,16 +27749,16 @@
         <v>197.1222917077869</v>
       </c>
       <c r="U6" t="n">
-        <v>193.3077485885262</v>
+        <v>188.8981098872481</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>214.7013698951641</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>168.779371937722</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>134.6628465341504</v>
+        <v>130.2532078328724</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>109.4403493808137</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27828,19 +27828,19 @@
         <v>225.2417557763421</v>
       </c>
       <c r="U7" t="n">
-        <v>286.284512331147</v>
+        <v>249.2908990653915</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>219.5536687593506</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>249.5293850708355</v>
       </c>
       <c r="X7" t="n">
-        <v>188.7160421232817</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.5910400863393</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>205.1326486721272</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>235.5473411047176</v>
       </c>
       <c r="H8" t="n">
-        <v>317.4130663502734</v>
+        <v>167.8579813052011</v>
       </c>
       <c r="I8" t="n">
-        <v>127.4259622569237</v>
+        <v>127.4259622569238</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14.55013741834244</v>
+        <v>14.55013741834262</v>
       </c>
       <c r="S8" t="n">
-        <v>23.52460822531214</v>
+        <v>159.9311591743142</v>
       </c>
       <c r="T8" t="n">
-        <v>213.6658240971767</v>
+        <v>36.06463110582374</v>
       </c>
       <c r="U8" t="n">
         <v>251.1733166343113</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>171.6397757260596</v>
+        <v>171.63977572606</v>
       </c>
       <c r="X8" t="n">
-        <v>192.1299076871156</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>108.8682949827185</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,16 +27941,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1909167206423</v>
       </c>
       <c r="H9" t="n">
         <v>101.1037504885342</v>
       </c>
       <c r="I9" t="n">
-        <v>49.71280182439232</v>
+        <v>49.71280182439236</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>28.59550141142857</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>150.2741234096415</v>
@@ -27986,19 +27986,19 @@
         <v>195.5189400688555</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8655531044901</v>
+        <v>48.26436011313706</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>55.19939415807227</v>
       </c>
       <c r="W9" t="n">
-        <v>74.0937901695662</v>
+        <v>74.0937901695666</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>77.84706640194929</v>
       </c>
     </row>
     <row r="10">
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>94.86207432881723</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>153.6358737815141</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>126.3911536743326</v>
       </c>
       <c r="J10" t="n">
-        <v>25.04166458341909</v>
+        <v>25.04166458341918</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.247470077359836</v>
+        <v>5.247470077359935</v>
       </c>
       <c r="R10" t="n">
-        <v>133.8449624421723</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>207.1765983870755</v>
@@ -28065,19 +28065,19 @@
         <v>223.8168466867836</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2663220023441</v>
+        <v>108.6651290109911</v>
       </c>
       <c r="V10" t="n">
-        <v>74.5364503324746</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>108.921805345238</v>
       </c>
       <c r="X10" t="n">
-        <v>166.6839583034447</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>40.98346036074139</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="20">
@@ -29053,7 +29053,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221585</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221594</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221423</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="35">
@@ -30037,7 +30037,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221639</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U35" t="n">
         <v>31.61020235221395</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221423</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221667</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522124</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I44" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.154203419064448</v>
+        <v>2.154203419064445</v>
       </c>
       <c r="H8" t="n">
-        <v>22.06173576549378</v>
+        <v>22.06173576549375</v>
       </c>
       <c r="I8" t="n">
-        <v>83.0499273134822</v>
+        <v>83.0499273134821</v>
       </c>
       <c r="J8" t="n">
-        <v>182.8353224388214</v>
+        <v>182.8353224388211</v>
       </c>
       <c r="K8" t="n">
-        <v>274.0227531678195</v>
+        <v>274.0227531678191</v>
       </c>
       <c r="L8" t="n">
-        <v>339.9494560540131</v>
+        <v>339.9494560540127</v>
       </c>
       <c r="M8" t="n">
-        <v>378.2592711078005</v>
+        <v>378.2592711078</v>
       </c>
       <c r="N8" t="n">
-        <v>384.3799015722174</v>
+        <v>384.3799015722169</v>
       </c>
       <c r="O8" t="n">
-        <v>362.9590413238952</v>
+        <v>362.9590413238948</v>
       </c>
       <c r="P8" t="n">
-        <v>309.7771444157416</v>
+        <v>309.7771444157412</v>
       </c>
       <c r="Q8" t="n">
-        <v>232.629734470496</v>
+        <v>232.6297344704957</v>
       </c>
       <c r="R8" t="n">
-        <v>135.3189805228072</v>
+        <v>135.3189805228071</v>
       </c>
       <c r="S8" t="n">
-        <v>49.08891041193115</v>
+        <v>49.08891041193109</v>
       </c>
       <c r="T8" t="n">
-        <v>9.430025466954625</v>
+        <v>9.430025466954612</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1723362735251558</v>
+        <v>0.1723362735251556</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.152600442568304</v>
+        <v>1.152600442568303</v>
       </c>
       <c r="H9" t="n">
-        <v>11.13169374796231</v>
+        <v>11.1316937479623</v>
       </c>
       <c r="I9" t="n">
-        <v>39.68383102702276</v>
+        <v>39.68383102702271</v>
       </c>
       <c r="J9" t="n">
-        <v>108.8954654972098</v>
+        <v>108.8954654972097</v>
       </c>
       <c r="K9" t="n">
-        <v>186.1196951492862</v>
+        <v>186.119695149286</v>
       </c>
       <c r="L9" t="n">
-        <v>250.2608987251926</v>
+        <v>250.2608987251922</v>
       </c>
       <c r="M9" t="n">
-        <v>292.0426647682935</v>
+        <v>292.0426647682932</v>
       </c>
       <c r="N9" t="n">
-        <v>299.7721651046398</v>
+        <v>299.7721651046394</v>
       </c>
       <c r="O9" t="n">
-        <v>274.2329658245737</v>
+        <v>274.2329658245733</v>
       </c>
       <c r="P9" t="n">
-        <v>220.0961318795563</v>
+        <v>220.096131879556</v>
       </c>
       <c r="Q9" t="n">
-        <v>147.1284354408243</v>
+        <v>147.1284354408241</v>
       </c>
       <c r="R9" t="n">
-        <v>71.56233274121456</v>
+        <v>71.56233274121448</v>
       </c>
       <c r="S9" t="n">
-        <v>21.40904769419634</v>
+        <v>21.40904769419631</v>
       </c>
       <c r="T9" t="n">
-        <v>4.645788625966102</v>
+        <v>4.645788625966095</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07582897648475689</v>
+        <v>0.0758289764847568</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9663014926909999</v>
+        <v>0.9663014926909986</v>
       </c>
       <c r="H10" t="n">
-        <v>8.591298725925441</v>
+        <v>8.59129872592543</v>
       </c>
       <c r="I10" t="n">
-        <v>29.05932125292571</v>
+        <v>29.05932125292568</v>
       </c>
       <c r="J10" t="n">
-        <v>68.31751553325368</v>
+        <v>68.3175155332536</v>
       </c>
       <c r="K10" t="n">
-        <v>112.2666643326452</v>
+        <v>112.2666643326451</v>
       </c>
       <c r="L10" t="n">
-        <v>143.6626782860783</v>
+        <v>143.6626782860781</v>
       </c>
       <c r="M10" t="n">
-        <v>151.4721512588264</v>
+        <v>151.4721512588262</v>
       </c>
       <c r="N10" t="n">
-        <v>147.8704820587965</v>
+        <v>147.8704820587963</v>
       </c>
       <c r="O10" t="n">
-        <v>136.5823237123606</v>
+        <v>136.5823237123605</v>
       </c>
       <c r="P10" t="n">
-        <v>116.8697732614641</v>
+        <v>116.869773261464</v>
       </c>
       <c r="Q10" t="n">
-        <v>80.91457317433455</v>
+        <v>80.91457317433445</v>
       </c>
       <c r="R10" t="n">
-        <v>43.44842893499712</v>
+        <v>43.44842893499707</v>
       </c>
       <c r="S10" t="n">
-        <v>16.83999964989678</v>
+        <v>16.83999964989676</v>
       </c>
       <c r="T10" t="n">
-        <v>4.128742741497907</v>
+        <v>4.128742741497902</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05270735414678187</v>
+        <v>0.0527073541467818</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H14" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I14" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117592</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972012</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R14" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S14" t="n">
         <v>117.0897208110796</v>
@@ -32029,7 +32029,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H15" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J15" t="n">
-        <v>259.7437903115856</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M15" t="n">
-        <v>696.597129487967</v>
+        <v>687.6080308054961</v>
       </c>
       <c r="N15" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578284</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>177.6727308988288</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T15" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H16" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I16" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J16" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K16" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L16" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M16" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N16" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P16" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R16" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S16" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I17" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L17" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117591</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972011</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R17" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32306,37 +32306,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J18" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>349.2052314929251</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>548.123591064916</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q18" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877214</v>
+        <v>170.6946332877213</v>
       </c>
       <c r="S18" t="n">
         <v>51.06610426486996</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J19" t="n">
         <v>162.9549067838146</v>
@@ -32397,31 +32397,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q19" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S19" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32555,10 +32555,10 @@
         <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155584</v>
+        <v>262.3699665790566</v>
       </c>
       <c r="M21" t="n">
-        <v>542.0844172432589</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
         <v>715.0339827160628</v>
@@ -32567,10 +32567,10 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>170.6946332877214</v>
@@ -32789,13 +32789,13 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>443.943509024727</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>476.5490354591197</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
         <v>715.0339827160628</v>
@@ -32804,7 +32804,7 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>152.6576015750716</v>
       </c>
       <c r="Q24" t="n">
         <v>350.9392912691326</v>
@@ -33023,16 +33023,16 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>443.943509024727</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
-        <v>176.0878742921115</v>
+        <v>324.2686513738034</v>
       </c>
       <c r="N27" t="n">
         <v>715.0339827160628</v>
@@ -33047,7 +33047,7 @@
         <v>350.9392912691326</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486996</v>
@@ -33260,19 +33260,19 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
         <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
-        <v>596.9368339155584</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>696.5971294879669</v>
+        <v>476.5490354591197</v>
       </c>
       <c r="N30" t="n">
-        <v>194.5247275202073</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
         <v>654.1164009578283</v>
@@ -33284,7 +33284,7 @@
         <v>350.9392912691326</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33497,7 +33497,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>135.7763377130026</v>
       </c>
       <c r="K33" t="n">
         <v>443.943509024727</v>
@@ -33506,13 +33506,13 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>687.6080308054954</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P33" t="n">
         <v>524.986079689235</v>
@@ -33521,7 +33521,7 @@
         <v>350.9392912691326</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486996</v>
@@ -33737,7 +33737,7 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
-        <v>443.943509024727</v>
+        <v>374.2203608166823</v>
       </c>
       <c r="L36" t="n">
         <v>596.9368339155584</v>
@@ -33746,19 +33746,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>715.0339827160628</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P36" t="n">
-        <v>358.0756880380876</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q36" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33977,10 +33977,10 @@
         <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
-        <v>696.5971294879669</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>715.0339827160628</v>
@@ -33989,10 +33989,10 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P39" t="n">
-        <v>304.9379856603878</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>226.9718386705495</v>
       </c>
       <c r="R39" t="n">
         <v>170.6946332877214</v>
@@ -34208,13 +34208,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>289.4307967800191</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>596.9368339155584</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879669</v>
@@ -34226,7 +34226,7 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>304.9379856603878</v>
       </c>
       <c r="Q42" t="n">
         <v>350.9392912691326</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H44" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I44" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L44" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q44" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R44" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S44" t="n">
         <v>117.0897208110796</v>
@@ -34399,7 +34399,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H45" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I45" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J45" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K45" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L45" t="n">
-        <v>596.9368339155584</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N45" t="n">
-        <v>715.0339827160628</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578283</v>
+        <v>434.0683069289803</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q45" t="n">
-        <v>226.9718386705495</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R45" t="n">
         <v>170.6946332877214</v>
       </c>
       <c r="S45" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T45" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34524,10 +34524,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J46" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K46" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L46" t="n">
         <v>342.6725659692048</v>
@@ -34539,22 +34539,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O46" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P46" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q46" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R46" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S46" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T46" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U46" t="n">
         <v>0.1257206430118155</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>32.81420925247097</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>25.21757465157243</v>
       </c>
       <c r="L5" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575549</v>
       </c>
       <c r="M5" t="n">
         <v>17.3684369311994</v>
@@ -34948,10 +34948,10 @@
         <v>22.30988890275961</v>
       </c>
       <c r="O5" t="n">
-        <v>36.9936132657555</v>
+        <v>7.596634600898511</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>36.99361326575549</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,13 +35021,13 @@
         <v>25.33663550103441</v>
       </c>
       <c r="M6" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575549</v>
       </c>
       <c r="N6" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575549</v>
       </c>
       <c r="O6" t="n">
-        <v>36.99361326575551</v>
+        <v>36.99361326575549</v>
       </c>
       <c r="P6" t="n">
         <v>10.16228631964003</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575549</v>
       </c>
       <c r="L7" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>35.49892182067446</v>
       </c>
       <c r="N7" t="n">
-        <v>35.49892182067448</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575549</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>36.99361326575549</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.789417912135065</v>
+        <v>1.789417912134809</v>
       </c>
       <c r="K8" t="n">
-        <v>53.93290212283893</v>
+        <v>72.64760817694412</v>
       </c>
       <c r="L8" t="n">
-        <v>104.1830410840259</v>
+        <v>104.1830410840254</v>
       </c>
       <c r="M8" t="n">
-        <v>147.9130378805278</v>
+        <v>147.9130378805272</v>
       </c>
       <c r="N8" t="n">
-        <v>154.9668379756264</v>
+        <v>154.966837975626</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8608299022085</v>
+        <v>132.8608299022081</v>
       </c>
       <c r="P8" t="n">
-        <v>78.5441486604721</v>
+        <v>78.54414866047171</v>
       </c>
       <c r="Q8" t="n">
-        <v>29.03875065015043</v>
+        <v>10.32404459604626</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.27825617492724</v>
+        <v>48.27825617492698</v>
       </c>
       <c r="L9" t="n">
-        <v>111.7065189453184</v>
+        <v>111.7065189453181</v>
       </c>
       <c r="M9" t="n">
-        <v>149.9086308462752</v>
+        <v>149.9086308462748</v>
       </c>
       <c r="N9" t="n">
-        <v>168.4304530213065</v>
+        <v>168.4304530213061</v>
       </c>
       <c r="O9" t="n">
-        <v>131.6367213801292</v>
+        <v>131.6367213801289</v>
       </c>
       <c r="P9" t="n">
-        <v>86.12172446522604</v>
+        <v>86.12172446522575</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.146661354802745</v>
+        <v>7.146661354802546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>89.99717250676238</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>171.2527035463945</v>
+        <v>171.2527035463943</v>
       </c>
       <c r="M10" t="n">
-        <v>12.54636731122139</v>
+        <v>177.601192991353</v>
       </c>
       <c r="N10" t="n">
-        <v>177.6011929913534</v>
+        <v>177.601192991353</v>
       </c>
       <c r="O10" t="n">
-        <v>137.683197305896</v>
+        <v>161.1674516264002</v>
       </c>
       <c r="P10" t="n">
-        <v>114.1483325263576</v>
+        <v>15.60642503248327</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721832</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R14" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>132.9061636449189</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M15" t="n">
-        <v>554.4630955659486</v>
+        <v>545.4739968834778</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O15" t="n">
-        <v>511.520156513384</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>43.69832348449857</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714189</v>
+        <v>69.59572666714183</v>
       </c>
       <c r="K16" t="n">
-        <v>245.5154777892838</v>
+        <v>245.5154777892837</v>
       </c>
       <c r="L16" t="n">
-        <v>370.2625912295209</v>
+        <v>370.2625912295208</v>
       </c>
       <c r="M16" t="n">
-        <v>400.8840515372959</v>
+        <v>400.8840515372958</v>
       </c>
       <c r="N16" t="n">
-        <v>396.8414363488769</v>
+        <v>396.8414363488768</v>
       </c>
       <c r="O16" t="n">
-        <v>350.3692208386573</v>
+        <v>350.3692208386572</v>
       </c>
       <c r="P16" t="n">
-        <v>276.043131703092</v>
+        <v>276.0431317030919</v>
       </c>
       <c r="Q16" t="n">
-        <v>106.8400972119442</v>
+        <v>106.8400972119441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721831</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N17" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P17" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>211.3637925185661</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>416.7818789815827</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q18" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375741</v>
+        <v>25.01512932375738</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q19" t="n">
         <v>138.4502995641581</v>
@@ -36133,13 +36133,13 @@
         <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P20" t="n">
         <v>507.665444827693</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227508</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
         <v>107.1851555440239</v>
@@ -36203,10 +36203,10 @@
         <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356842</v>
+        <v>123.8155867991825</v>
       </c>
       <c r="M21" t="n">
-        <v>399.9503833212407</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
         <v>583.6922706327296</v>
@@ -36215,10 +36215,10 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>25.01512932375741</v>
@@ -36437,13 +36437,13 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>306.102070050368</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
-        <v>334.4150015371014</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
         <v>583.6922706327296</v>
@@ -36452,7 +36452,7 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>18.68319416074139</v>
       </c>
       <c r="Q24" t="n">
         <v>210.9575171831111</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
-        <v>306.102070050368</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
-        <v>33.95384037009313</v>
+        <v>182.1346174517851</v>
       </c>
       <c r="N27" t="n">
         <v>583.6922706327296</v>
@@ -36695,7 +36695,7 @@
         <v>210.9575171831111</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
         <v>432.4942538895098</v>
@@ -36835,13 +36835,13 @@
         <v>433.5251384721831</v>
       </c>
       <c r="L29" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M29" t="n">
         <v>671.8997542381569</v>
       </c>
       <c r="N29" t="n">
-        <v>687.432207215169</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O29" t="n">
         <v>635.6527791348809</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
-        <v>458.3824541356842</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>554.4630955659486</v>
+        <v>334.4150015371014</v>
       </c>
       <c r="N30" t="n">
-        <v>63.18301543687397</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
         <v>511.5201565133839</v>
@@ -36932,7 +36932,7 @@
         <v>210.9575171831111</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37090,7 +37090,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R32" t="n">
-        <v>107.1851555440265</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>8.93871104633595</v>
       </c>
       <c r="K33" t="n">
         <v>306.102070050368</v>
@@ -37154,13 +37154,13 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
-        <v>545.4739968834771</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P33" t="n">
         <v>391.0116722749048</v>
@@ -37169,7 +37169,7 @@
         <v>210.9575171831111</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,22 +37227,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O34" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
         <v>138.4502995641581</v>
@@ -37385,7 +37385,7 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
-        <v>306.102070050368</v>
+        <v>236.3789218423233</v>
       </c>
       <c r="L36" t="n">
         <v>458.3824541356842</v>
@@ -37394,19 +37394,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327296</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P36" t="n">
-        <v>224.1012806237574</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q36" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>583.6922706327296</v>
@@ -37637,10 +37637,10 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P39" t="n">
-        <v>170.9635782460576</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>86.99006458452799</v>
       </c>
       <c r="R39" t="n">
         <v>25.01512932375741</v>
@@ -37701,7 +37701,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
@@ -37795,7 +37795,7 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P41" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276938</v>
       </c>
       <c r="Q41" t="n">
         <v>332.5762668227516</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>151.5893578056601</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>458.3824541356842</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
@@ -37874,7 +37874,7 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>170.9635782460576</v>
       </c>
       <c r="Q42" t="n">
         <v>210.9575171831111</v>
@@ -37944,19 +37944,19 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P43" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641566</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169886</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N44" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P44" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R44" t="n">
         <v>107.1851555440239</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K45" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L45" t="n">
-        <v>458.3824541356842</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133839</v>
+        <v>291.4720624845359</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q45" t="n">
-        <v>86.99006458452799</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375741</v>
+        <v>25.01512932375746</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P46" t="n">
         <v>307.6533340553059</v>
